--- a/biology/Zoologie/Bolma_(gastéropode)/Bolma_(gastéropode).xlsx
+++ b/biology/Zoologie/Bolma_(gastéropode)/Bolma_(gastéropode).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bolma_(gast%C3%A9ropode)</t>
+          <t>Bolma_(gastéropode)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Bolma regroupe des espèces de gastéropodes prosobranches de la famille des Turbinidae. Comme la plupart des espèces de leur famille, ils sont célèbres pour leur opercule massif, souvent retrouvé isolé sur les plages (la coquille des individus morts étant le plus souvent appropriée par un pagure). 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bolma_(gast%C3%A9ropode)</t>
+          <t>Bolma_(gastéropode)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (25 juillet 2015)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (25 juillet 2015) :
 Bolma andersoni (E. A. Smith, 1902)
 Bolma aureola (Hedley, 1907)
 Bolma bartschii Dall, 1913
